--- a/contratos/contratos-5-2015.xlsx
+++ b/contratos/contratos-5-2015.xlsx
@@ -784,7 +784,7 @@
     <t>IMEL INGENIERIA Y MATERIALES ELECTRICOS S.R.L.</t>
   </si>
   <si>
-    <t>MARSICO GUILLERMO MIGUEL, MARSICO JUAN EDUARDO</t>
+    <t>MARSICO GUILLERMO MIGUEL. MARSICO JUAN EDUARDO</t>
   </si>
   <si>
     <t>MATELEC INGENIERIA S.R.L.</t>
@@ -835,7 +835,7 @@
     <t>PEREZ RUBEN</t>
   </si>
   <si>
-    <t>SCHAB DARIO, PEROTTI XAVIER, BENINCA MATIAS S.H.</t>
+    <t>SCHAB DARIO. PEROTTI XAVIER. BENINCA MATIAS SH</t>
   </si>
   <si>
     <t>SERVICER S.A.</t>
@@ -898,7 +898,7 @@
     <t>DUARTE EDMUNDO ALCIDES</t>
   </si>
   <si>
-    <t>FERNANDEZ, MARIO HUGO</t>
+    <t>FERNANDEZ. MARIO HUGO</t>
   </si>
   <si>
     <t>GALLICET OSCAR MARCELO</t>
@@ -967,7 +967,7 @@
     <t>ORGANIZACION DELASOIE HNOS. S.A.</t>
   </si>
   <si>
-    <t>RICCOTTI, MARIANA EDITH</t>
+    <t>RICCOTTI. MARIANA EDITH</t>
   </si>
   <si>
     <t>SIAFA S.R.L.</t>
@@ -1573,700 +1573,700 @@
     <t>59</t>
   </si>
   <si>
-    <t>4.665,00</t>
-  </si>
-  <si>
-    <t>205.275,27</t>
-  </si>
-  <si>
-    <t>131.700,00</t>
-  </si>
-  <si>
-    <t>24.000,00</t>
-  </si>
-  <si>
-    <t>459,94</t>
-  </si>
-  <si>
-    <t>180,00</t>
-  </si>
-  <si>
-    <t>50,00</t>
-  </si>
-  <si>
-    <t>34.068,00</t>
-  </si>
-  <si>
-    <t>1.596,00</t>
-  </si>
-  <si>
-    <t>95.379,34</t>
-  </si>
-  <si>
-    <t>500.000,00</t>
-  </si>
-  <si>
-    <t>631,89</t>
-  </si>
-  <si>
-    <t>450,00</t>
-  </si>
-  <si>
-    <t>53.053,40</t>
-  </si>
-  <si>
-    <t>491.607,82</t>
-  </si>
-  <si>
-    <t>8.080,00</t>
-  </si>
-  <si>
-    <t>292.891,46</t>
-  </si>
-  <si>
-    <t>21.998,80</t>
-  </si>
-  <si>
-    <t>5.998,50</t>
-  </si>
-  <si>
-    <t>15.300,00</t>
-  </si>
-  <si>
-    <t>1.990,63</t>
-  </si>
-  <si>
-    <t>2.910,00</t>
-  </si>
-  <si>
-    <t>16.208,61</t>
-  </si>
-  <si>
-    <t>8.200,00</t>
-  </si>
-  <si>
-    <t>1.700,00</t>
-  </si>
-  <si>
-    <t>5.085,00</t>
-  </si>
-  <si>
-    <t>3,87</t>
-  </si>
-  <si>
-    <t>2.793,00</t>
-  </si>
-  <si>
-    <t>975,00</t>
-  </si>
-  <si>
-    <t>354,00</t>
-  </si>
-  <si>
-    <t>25.000,00</t>
-  </si>
-  <si>
-    <t>130.720,00</t>
-  </si>
-  <si>
-    <t>21.420,00</t>
-  </si>
-  <si>
-    <t>53.506,80</t>
-  </si>
-  <si>
-    <t>88.457,26</t>
-  </si>
-  <si>
-    <t>6.859,64</t>
-  </si>
-  <si>
-    <t>340,00</t>
-  </si>
-  <si>
-    <t>4.305,53</t>
-  </si>
-  <si>
-    <t>85.280,00</t>
-  </si>
-  <si>
-    <t>500,00</t>
-  </si>
-  <si>
-    <t>168,00</t>
-  </si>
-  <si>
-    <t>244,53</t>
-  </si>
-  <si>
-    <t>66.328,32</t>
-  </si>
-  <si>
-    <t>7.942,00</t>
-  </si>
-  <si>
-    <t>9.511,00</t>
-  </si>
-  <si>
-    <t>15.191,00</t>
-  </si>
-  <si>
-    <t>390,00</t>
-  </si>
-  <si>
-    <t>35.401,27</t>
-  </si>
-  <si>
-    <t>4.618,80</t>
-  </si>
-  <si>
-    <t>1.092,00</t>
-  </si>
-  <si>
-    <t>300,00</t>
-  </si>
-  <si>
-    <t>8.836,36</t>
-  </si>
-  <si>
-    <t>150,00</t>
-  </si>
-  <si>
-    <t>2.276,50</t>
-  </si>
-  <si>
-    <t>1.458,67</t>
-  </si>
-  <si>
-    <t>65,05</t>
-  </si>
-  <si>
-    <t>4.266,29</t>
-  </si>
-  <si>
-    <t>197.993,08</t>
-  </si>
-  <si>
-    <t>3.134,50</t>
-  </si>
-  <si>
-    <t>1.040,00</t>
-  </si>
-  <si>
-    <t>53.377,38</t>
-  </si>
-  <si>
-    <t>6.340,26</t>
-  </si>
-  <si>
-    <t>1.939,92</t>
-  </si>
-  <si>
-    <t>332,63</t>
-  </si>
-  <si>
-    <t>1.960,00</t>
-  </si>
-  <si>
-    <t>4.503,00</t>
-  </si>
-  <si>
-    <t>3.240,00</t>
-  </si>
-  <si>
-    <t>110.660,00</t>
-  </si>
-  <si>
-    <t>1.739,31</t>
-  </si>
-  <si>
-    <t>8.012,10</t>
-  </si>
-  <si>
-    <t>1.775,00</t>
-  </si>
-  <si>
-    <t>4.081,92</t>
-  </si>
-  <si>
-    <t>99.966,32</t>
-  </si>
-  <si>
-    <t>35.750,00</t>
-  </si>
-  <si>
-    <t>302,00</t>
-  </si>
-  <si>
-    <t>42.000,00</t>
-  </si>
-  <si>
-    <t>5.150,00</t>
-  </si>
-  <si>
-    <t>16.599,98</t>
-  </si>
-  <si>
-    <t>1.750,00</t>
-  </si>
-  <si>
-    <t>4.200,00</t>
-  </si>
-  <si>
-    <t>1.970,00</t>
-  </si>
-  <si>
-    <t>3.943,75</t>
-  </si>
-  <si>
-    <t>25.254,00</t>
-  </si>
-  <si>
-    <t>2.780,00</t>
-  </si>
-  <si>
-    <t>17.760,00</t>
-  </si>
-  <si>
-    <t>2.450,00</t>
-  </si>
-  <si>
-    <t>940,00</t>
-  </si>
-  <si>
-    <t>813,00</t>
-  </si>
-  <si>
-    <t>4.725,00</t>
-  </si>
-  <si>
-    <t>7.540,00</t>
-  </si>
-  <si>
-    <t>123,82</t>
-  </si>
-  <si>
-    <t>2.710,00</t>
-  </si>
-  <si>
-    <t>128,00</t>
-  </si>
-  <si>
-    <t>17.420,00</t>
-  </si>
-  <si>
-    <t>1.660,00</t>
-  </si>
-  <si>
-    <t>7.345,00</t>
-  </si>
-  <si>
-    <t>5.955,00</t>
-  </si>
-  <si>
-    <t>2.790,00</t>
-  </si>
-  <si>
-    <t>6.319,98</t>
-  </si>
-  <si>
-    <t>13.860,00</t>
-  </si>
-  <si>
-    <t>4.600,00</t>
-  </si>
-  <si>
-    <t>371.897,61</t>
-  </si>
-  <si>
-    <t>70.112,60</t>
-  </si>
-  <si>
-    <t>14.175,51</t>
-  </si>
-  <si>
-    <t>337,08</t>
-  </si>
-  <si>
-    <t>4.500,00</t>
-  </si>
-  <si>
-    <t>2.850,00</t>
-  </si>
-  <si>
-    <t>63,47</t>
-  </si>
-  <si>
-    <t>111,64</t>
-  </si>
-  <si>
-    <t>14.860,25</t>
-  </si>
-  <si>
-    <t>190,00</t>
-  </si>
-  <si>
-    <t>9.820,70</t>
-  </si>
-  <si>
-    <t>15.760,00</t>
-  </si>
-  <si>
-    <t>821,90</t>
-  </si>
-  <si>
-    <t>4.010,00</t>
-  </si>
-  <si>
-    <t>715,00</t>
-  </si>
-  <si>
-    <t>10.030,13</t>
-  </si>
-  <si>
-    <t>4.950,00</t>
-  </si>
-  <si>
-    <t>5.486,98</t>
-  </si>
-  <si>
-    <t>75,00</t>
-  </si>
-  <si>
-    <t>92,40</t>
-  </si>
-  <si>
-    <t>1.204,75</t>
-  </si>
-  <si>
-    <t>4.400,00</t>
-  </si>
-  <si>
-    <t>2.339,00</t>
-  </si>
-  <si>
-    <t>190,05</t>
-  </si>
-  <si>
-    <t>34.949,20</t>
-  </si>
-  <si>
-    <t>5.087,00</t>
-  </si>
-  <si>
-    <t>1.462,96</t>
-  </si>
-  <si>
-    <t>1.699,98</t>
-  </si>
-  <si>
-    <t>5.198,18</t>
-  </si>
-  <si>
-    <t>9.150,00</t>
-  </si>
-  <si>
-    <t>175,50</t>
-  </si>
-  <si>
-    <t>80,00</t>
-  </si>
-  <si>
-    <t>4.977,00</t>
-  </si>
-  <si>
-    <t>1.266,00</t>
-  </si>
-  <si>
-    <t>110,00</t>
-  </si>
-  <si>
-    <t>87,77</t>
-  </si>
-  <si>
-    <t>2.000,00</t>
-  </si>
-  <si>
-    <t>3.065,00</t>
-  </si>
-  <si>
-    <t>3.100,00</t>
-  </si>
-  <si>
-    <t>14.300,00</t>
-  </si>
-  <si>
-    <t>7.488,77</t>
-  </si>
-  <si>
-    <t>97.580,00</t>
-  </si>
-  <si>
-    <t>3.265,00</t>
-  </si>
-  <si>
-    <t>2.126,36</t>
-  </si>
-  <si>
-    <t>8.594,00</t>
-  </si>
-  <si>
-    <t>3.200,00</t>
-  </si>
-  <si>
-    <t>7.000,00</t>
-  </si>
-  <si>
-    <t>5.500,00</t>
-  </si>
-  <si>
-    <t>4.000,00</t>
-  </si>
-  <si>
-    <t>1.500,00</t>
-  </si>
-  <si>
-    <t>1.985,00</t>
-  </si>
-  <si>
-    <t>650,00</t>
-  </si>
-  <si>
-    <t>6.912,32</t>
-  </si>
-  <si>
-    <t>1.945,72</t>
-  </si>
-  <si>
-    <t>6.501,80</t>
-  </si>
-  <si>
-    <t>4.596,00</t>
-  </si>
-  <si>
-    <t>1.263,60</t>
-  </si>
-  <si>
-    <t>18.185,00</t>
-  </si>
-  <si>
-    <t>7.597,38</t>
-  </si>
-  <si>
-    <t>15.358,50</t>
-  </si>
-  <si>
-    <t>456,50</t>
-  </si>
-  <si>
-    <t>188.640,00</t>
-  </si>
-  <si>
-    <t>13.153,28</t>
-  </si>
-  <si>
-    <t>850,00</t>
-  </si>
-  <si>
-    <t>7.600,00</t>
-  </si>
-  <si>
-    <t>30.576,70</t>
-  </si>
-  <si>
-    <t>3.146,00</t>
-  </si>
-  <si>
-    <t>1.600,00</t>
-  </si>
-  <si>
-    <t>800,00</t>
-  </si>
-  <si>
-    <t>1.105,00</t>
-  </si>
-  <si>
-    <t>1.440,00</t>
-  </si>
-  <si>
-    <t>1.300,00</t>
-  </si>
-  <si>
-    <t>950,00</t>
-  </si>
-  <si>
-    <t>1.200,00</t>
-  </si>
-  <si>
-    <t>5.463,28</t>
-  </si>
-  <si>
-    <t>3.000,00</t>
-  </si>
-  <si>
-    <t>600,00</t>
-  </si>
-  <si>
-    <t>1.980,00</t>
-  </si>
-  <si>
-    <t>23.920,00</t>
-  </si>
-  <si>
-    <t>1.933,00</t>
-  </si>
-  <si>
-    <t>330,00</t>
-  </si>
-  <si>
-    <t>31,11</t>
-  </si>
-  <si>
-    <t>6.292,00</t>
-  </si>
-  <si>
-    <t>79.860,00</t>
-  </si>
-  <si>
-    <t>576,24</t>
-  </si>
-  <si>
-    <t>20,20</t>
-  </si>
-  <si>
-    <t>8.455,00</t>
-  </si>
-  <si>
-    <t>18.300,00</t>
-  </si>
-  <si>
-    <t>4.360,00</t>
-  </si>
-  <si>
-    <t>19,50</t>
-  </si>
-  <si>
-    <t>867,00</t>
-  </si>
-  <si>
-    <t>1.542,13</t>
-  </si>
-  <si>
-    <t>7.900,00</t>
-  </si>
-  <si>
-    <t>2.880,69</t>
-  </si>
-  <si>
-    <t>8.995,00</t>
-  </si>
-  <si>
-    <t>4.650,00</t>
-  </si>
-  <si>
-    <t>17.413,00</t>
-  </si>
-  <si>
-    <t>6.376,13</t>
-  </si>
-  <si>
-    <t>560,00</t>
-  </si>
-  <si>
-    <t>52,00</t>
-  </si>
-  <si>
-    <t>3.096,00</t>
-  </si>
-  <si>
-    <t>2.140,00</t>
-  </si>
-  <si>
-    <t>832,96</t>
-  </si>
-  <si>
-    <t>250,00</t>
-  </si>
-  <si>
-    <t>7.795,00</t>
-  </si>
-  <si>
-    <t>737.368,27</t>
-  </si>
-  <si>
-    <t>1.720,00</t>
-  </si>
-  <si>
-    <t>87.600,00</t>
-  </si>
-  <si>
-    <t>163.680,00</t>
-  </si>
-  <si>
-    <t>32.011,00</t>
-  </si>
-  <si>
-    <t>52.500,00</t>
-  </si>
-  <si>
-    <t>415.828,50</t>
-  </si>
-  <si>
-    <t>32.500,00</t>
-  </si>
-  <si>
-    <t>54.730,40</t>
-  </si>
-  <si>
-    <t>214.758,00</t>
-  </si>
-  <si>
-    <t>75.456,00</t>
-  </si>
-  <si>
-    <t>100.000,00</t>
-  </si>
-  <si>
-    <t>111.233,33</t>
-  </si>
-  <si>
-    <t>92.780,00</t>
-  </si>
-  <si>
-    <t>1.294.766,86</t>
-  </si>
-  <si>
-    <t>41.700,00</t>
-  </si>
-  <si>
-    <t>2.228,00</t>
-  </si>
-  <si>
-    <t>22.060,89</t>
-  </si>
-  <si>
-    <t>108.174,00</t>
-  </si>
-  <si>
-    <t>350,90</t>
-  </si>
-  <si>
-    <t>156.005,20</t>
-  </si>
-  <si>
-    <t>4.435,60</t>
-  </si>
-  <si>
-    <t>15.527,20</t>
-  </si>
-  <si>
-    <t>3.700,00</t>
-  </si>
-  <si>
-    <t>905.500,00</t>
-  </si>
-  <si>
-    <t>21.500,00</t>
+    <t>4665.00</t>
+  </si>
+  <si>
+    <t>205275.27</t>
+  </si>
+  <si>
+    <t>131700.00</t>
+  </si>
+  <si>
+    <t>24000.00</t>
+  </si>
+  <si>
+    <t>459.94</t>
+  </si>
+  <si>
+    <t>180.00</t>
+  </si>
+  <si>
+    <t>50.00</t>
+  </si>
+  <si>
+    <t>34068.00</t>
+  </si>
+  <si>
+    <t>1596.00</t>
+  </si>
+  <si>
+    <t>95379.34</t>
+  </si>
+  <si>
+    <t>500000.00</t>
+  </si>
+  <si>
+    <t>631.89</t>
+  </si>
+  <si>
+    <t>450.00</t>
+  </si>
+  <si>
+    <t>53053.40</t>
+  </si>
+  <si>
+    <t>491607.82</t>
+  </si>
+  <si>
+    <t>8080.00</t>
+  </si>
+  <si>
+    <t>292891.46</t>
+  </si>
+  <si>
+    <t>21998.80</t>
+  </si>
+  <si>
+    <t>5998.50</t>
+  </si>
+  <si>
+    <t>15300.00</t>
+  </si>
+  <si>
+    <t>1990.63</t>
+  </si>
+  <si>
+    <t>2910.00</t>
+  </si>
+  <si>
+    <t>16208.61</t>
+  </si>
+  <si>
+    <t>8200.00</t>
+  </si>
+  <si>
+    <t>1700.00</t>
+  </si>
+  <si>
+    <t>5085.00</t>
+  </si>
+  <si>
+    <t>3.87</t>
+  </si>
+  <si>
+    <t>2793.00</t>
+  </si>
+  <si>
+    <t>975.00</t>
+  </si>
+  <si>
+    <t>354.00</t>
+  </si>
+  <si>
+    <t>25000.00</t>
+  </si>
+  <si>
+    <t>130720.00</t>
+  </si>
+  <si>
+    <t>21420.00</t>
+  </si>
+  <si>
+    <t>53506.80</t>
+  </si>
+  <si>
+    <t>88457.26</t>
+  </si>
+  <si>
+    <t>6859.64</t>
+  </si>
+  <si>
+    <t>340.00</t>
+  </si>
+  <si>
+    <t>4305.53</t>
+  </si>
+  <si>
+    <t>85280.00</t>
+  </si>
+  <si>
+    <t>500.00</t>
+  </si>
+  <si>
+    <t>168.00</t>
+  </si>
+  <si>
+    <t>244.53</t>
+  </si>
+  <si>
+    <t>66328.32</t>
+  </si>
+  <si>
+    <t>7942.00</t>
+  </si>
+  <si>
+    <t>9511.00</t>
+  </si>
+  <si>
+    <t>15191.00</t>
+  </si>
+  <si>
+    <t>390.00</t>
+  </si>
+  <si>
+    <t>35401.27</t>
+  </si>
+  <si>
+    <t>4618.80</t>
+  </si>
+  <si>
+    <t>1092.00</t>
+  </si>
+  <si>
+    <t>300.00</t>
+  </si>
+  <si>
+    <t>8836.36</t>
+  </si>
+  <si>
+    <t>150.00</t>
+  </si>
+  <si>
+    <t>2276.50</t>
+  </si>
+  <si>
+    <t>1458.67</t>
+  </si>
+  <si>
+    <t>65.05</t>
+  </si>
+  <si>
+    <t>4266.29</t>
+  </si>
+  <si>
+    <t>197993.08</t>
+  </si>
+  <si>
+    <t>3134.50</t>
+  </si>
+  <si>
+    <t>1040.00</t>
+  </si>
+  <si>
+    <t>53377.38</t>
+  </si>
+  <si>
+    <t>6340.26</t>
+  </si>
+  <si>
+    <t>1939.92</t>
+  </si>
+  <si>
+    <t>332.63</t>
+  </si>
+  <si>
+    <t>1960.00</t>
+  </si>
+  <si>
+    <t>4503.00</t>
+  </si>
+  <si>
+    <t>3240.00</t>
+  </si>
+  <si>
+    <t>110660.00</t>
+  </si>
+  <si>
+    <t>1739.31</t>
+  </si>
+  <si>
+    <t>8012.10</t>
+  </si>
+  <si>
+    <t>1775.00</t>
+  </si>
+  <si>
+    <t>4081.92</t>
+  </si>
+  <si>
+    <t>99966.32</t>
+  </si>
+  <si>
+    <t>35750.00</t>
+  </si>
+  <si>
+    <t>302.00</t>
+  </si>
+  <si>
+    <t>42000.00</t>
+  </si>
+  <si>
+    <t>5150.00</t>
+  </si>
+  <si>
+    <t>16599.98</t>
+  </si>
+  <si>
+    <t>1750.00</t>
+  </si>
+  <si>
+    <t>4200.00</t>
+  </si>
+  <si>
+    <t>1970.00</t>
+  </si>
+  <si>
+    <t>3943.75</t>
+  </si>
+  <si>
+    <t>25254.00</t>
+  </si>
+  <si>
+    <t>2780.00</t>
+  </si>
+  <si>
+    <t>17760.00</t>
+  </si>
+  <si>
+    <t>2450.00</t>
+  </si>
+  <si>
+    <t>940.00</t>
+  </si>
+  <si>
+    <t>813.00</t>
+  </si>
+  <si>
+    <t>4725.00</t>
+  </si>
+  <si>
+    <t>7540.00</t>
+  </si>
+  <si>
+    <t>123.82</t>
+  </si>
+  <si>
+    <t>2710.00</t>
+  </si>
+  <si>
+    <t>128.00</t>
+  </si>
+  <si>
+    <t>17420.00</t>
+  </si>
+  <si>
+    <t>1660.00</t>
+  </si>
+  <si>
+    <t>7345.00</t>
+  </si>
+  <si>
+    <t>5955.00</t>
+  </si>
+  <si>
+    <t>2790.00</t>
+  </si>
+  <si>
+    <t>6319.98</t>
+  </si>
+  <si>
+    <t>13860.00</t>
+  </si>
+  <si>
+    <t>4600.00</t>
+  </si>
+  <si>
+    <t>371897.61</t>
+  </si>
+  <si>
+    <t>70112.60</t>
+  </si>
+  <si>
+    <t>14175.51</t>
+  </si>
+  <si>
+    <t>337.08</t>
+  </si>
+  <si>
+    <t>4500.00</t>
+  </si>
+  <si>
+    <t>2850.00</t>
+  </si>
+  <si>
+    <t>63.47</t>
+  </si>
+  <si>
+    <t>111.64</t>
+  </si>
+  <si>
+    <t>14860.25</t>
+  </si>
+  <si>
+    <t>190.00</t>
+  </si>
+  <si>
+    <t>9820.70</t>
+  </si>
+  <si>
+    <t>15760.00</t>
+  </si>
+  <si>
+    <t>821.90</t>
+  </si>
+  <si>
+    <t>4010.00</t>
+  </si>
+  <si>
+    <t>715.00</t>
+  </si>
+  <si>
+    <t>10030.13</t>
+  </si>
+  <si>
+    <t>4950.00</t>
+  </si>
+  <si>
+    <t>5486.98</t>
+  </si>
+  <si>
+    <t>75.00</t>
+  </si>
+  <si>
+    <t>92.40</t>
+  </si>
+  <si>
+    <t>1204.75</t>
+  </si>
+  <si>
+    <t>4400.00</t>
+  </si>
+  <si>
+    <t>2339.00</t>
+  </si>
+  <si>
+    <t>190.05</t>
+  </si>
+  <si>
+    <t>34949.20</t>
+  </si>
+  <si>
+    <t>5087.00</t>
+  </si>
+  <si>
+    <t>1462.96</t>
+  </si>
+  <si>
+    <t>1699.98</t>
+  </si>
+  <si>
+    <t>5198.18</t>
+  </si>
+  <si>
+    <t>9150.00</t>
+  </si>
+  <si>
+    <t>175.50</t>
+  </si>
+  <si>
+    <t>80.00</t>
+  </si>
+  <si>
+    <t>4977.00</t>
+  </si>
+  <si>
+    <t>1266.00</t>
+  </si>
+  <si>
+    <t>110.00</t>
+  </si>
+  <si>
+    <t>87.77</t>
+  </si>
+  <si>
+    <t>2000.00</t>
+  </si>
+  <si>
+    <t>3065.00</t>
+  </si>
+  <si>
+    <t>3100.00</t>
+  </si>
+  <si>
+    <t>14300.00</t>
+  </si>
+  <si>
+    <t>7488.77</t>
+  </si>
+  <si>
+    <t>97580.00</t>
+  </si>
+  <si>
+    <t>3265.00</t>
+  </si>
+  <si>
+    <t>2126.36</t>
+  </si>
+  <si>
+    <t>8594.00</t>
+  </si>
+  <si>
+    <t>3200.00</t>
+  </si>
+  <si>
+    <t>7000.00</t>
+  </si>
+  <si>
+    <t>5500.00</t>
+  </si>
+  <si>
+    <t>4000.00</t>
+  </si>
+  <si>
+    <t>1500.00</t>
+  </si>
+  <si>
+    <t>1985.00</t>
+  </si>
+  <si>
+    <t>650.00</t>
+  </si>
+  <si>
+    <t>6912.32</t>
+  </si>
+  <si>
+    <t>1945.72</t>
+  </si>
+  <si>
+    <t>6501.80</t>
+  </si>
+  <si>
+    <t>4596.00</t>
+  </si>
+  <si>
+    <t>1263.60</t>
+  </si>
+  <si>
+    <t>18185.00</t>
+  </si>
+  <si>
+    <t>7597.38</t>
+  </si>
+  <si>
+    <t>15358.50</t>
+  </si>
+  <si>
+    <t>456.50</t>
+  </si>
+  <si>
+    <t>188640.00</t>
+  </si>
+  <si>
+    <t>13153.28</t>
+  </si>
+  <si>
+    <t>850.00</t>
+  </si>
+  <si>
+    <t>7600.00</t>
+  </si>
+  <si>
+    <t>30576.70</t>
+  </si>
+  <si>
+    <t>3146.00</t>
+  </si>
+  <si>
+    <t>1600.00</t>
+  </si>
+  <si>
+    <t>800.00</t>
+  </si>
+  <si>
+    <t>1105.00</t>
+  </si>
+  <si>
+    <t>1440.00</t>
+  </si>
+  <si>
+    <t>1300.00</t>
+  </si>
+  <si>
+    <t>950.00</t>
+  </si>
+  <si>
+    <t>1200.00</t>
+  </si>
+  <si>
+    <t>5463.28</t>
+  </si>
+  <si>
+    <t>3000.00</t>
+  </si>
+  <si>
+    <t>600.00</t>
+  </si>
+  <si>
+    <t>1980.00</t>
+  </si>
+  <si>
+    <t>23920.00</t>
+  </si>
+  <si>
+    <t>1933.00</t>
+  </si>
+  <si>
+    <t>330.00</t>
+  </si>
+  <si>
+    <t>31.11</t>
+  </si>
+  <si>
+    <t>6292.00</t>
+  </si>
+  <si>
+    <t>79860.00</t>
+  </si>
+  <si>
+    <t>576.24</t>
+  </si>
+  <si>
+    <t>20.20</t>
+  </si>
+  <si>
+    <t>8455.00</t>
+  </si>
+  <si>
+    <t>18300.00</t>
+  </si>
+  <si>
+    <t>4360.00</t>
+  </si>
+  <si>
+    <t>19.50</t>
+  </si>
+  <si>
+    <t>867.00</t>
+  </si>
+  <si>
+    <t>1542.13</t>
+  </si>
+  <si>
+    <t>7900.00</t>
+  </si>
+  <si>
+    <t>2880.69</t>
+  </si>
+  <si>
+    <t>8995.00</t>
+  </si>
+  <si>
+    <t>4650.00</t>
+  </si>
+  <si>
+    <t>17413.00</t>
+  </si>
+  <si>
+    <t>6376.13</t>
+  </si>
+  <si>
+    <t>560.00</t>
+  </si>
+  <si>
+    <t>52.00</t>
+  </si>
+  <si>
+    <t>3096.00</t>
+  </si>
+  <si>
+    <t>2140.00</t>
+  </si>
+  <si>
+    <t>832.96</t>
+  </si>
+  <si>
+    <t>250.00</t>
+  </si>
+  <si>
+    <t>7795.00</t>
+  </si>
+  <si>
+    <t>737368.27</t>
+  </si>
+  <si>
+    <t>1720.00</t>
+  </si>
+  <si>
+    <t>87600.00</t>
+  </si>
+  <si>
+    <t>163680.00</t>
+  </si>
+  <si>
+    <t>32011.00</t>
+  </si>
+  <si>
+    <t>52500.00</t>
+  </si>
+  <si>
+    <t>415828.50</t>
+  </si>
+  <si>
+    <t>32500.00</t>
+  </si>
+  <si>
+    <t>54730.40</t>
+  </si>
+  <si>
+    <t>214758.00</t>
+  </si>
+  <si>
+    <t>75456.00</t>
+  </si>
+  <si>
+    <t>100000.00</t>
+  </si>
+  <si>
+    <t>111233.33</t>
+  </si>
+  <si>
+    <t>92780.00</t>
+  </si>
+  <si>
+    <t>1294766.86</t>
+  </si>
+  <si>
+    <t>41700.00</t>
+  </si>
+  <si>
+    <t>2228.00</t>
+  </si>
+  <si>
+    <t>22060.89</t>
+  </si>
+  <si>
+    <t>108174.00</t>
+  </si>
+  <si>
+    <t>350.90</t>
+  </si>
+  <si>
+    <t>156005.20</t>
+  </si>
+  <si>
+    <t>4435.60</t>
+  </si>
+  <si>
+    <t>15527.20</t>
+  </si>
+  <si>
+    <t>3700.00</t>
+  </si>
+  <si>
+    <t>905500.00</t>
+  </si>
+  <si>
+    <t>21500.00</t>
   </si>
 </sst>
 </file>
